--- a/election_votar_data/LOHAGARA/KALAUZAN/152564/152564_com_1844_male_without_photo_103_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152564/152564_com_1844_male_without_photo_103_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="42.5" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০১/০১/১৯৯৭</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:২২/০১/২০০৬</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২৩/০১/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="F418" s="3" t="inlineStr">
         <is>
-          <t>সরকারী চাকুরী/জন্ম তারিখ: ০৭/১২/২০০০</t>
+          <t>সরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G418" s="3" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ২২/০৮/২০০৬</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
@@ -30723,7 +30723,7 @@
       </c>
       <c r="F721" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০১/১০/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G721" s="3" t="inlineStr">
@@ -40299,7 +40299,7 @@
       </c>
       <c r="F949" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ০২/০৩/১৯৯৬</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G949" s="3" t="inlineStr">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="F953" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৩/০৮/২০০২</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G953" s="3" t="inlineStr">
@@ -43365,7 +43365,7 @@
       </c>
       <c r="F1022" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ০২/১২/২০০৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1022" s="3" t="inlineStr">
@@ -43911,7 +43911,7 @@
       </c>
       <c r="F1035" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ: ০৭/০২/১৯৯৬</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G1035" s="3" t="inlineStr">
@@ -44037,7 +44037,7 @@
       </c>
       <c r="F1038" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ০২/০২/২০০২</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1038" s="3" t="inlineStr">
@@ -51345,7 +51345,7 @@
       </c>
       <c r="F1212" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১৩/০৬/২০০৪</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1212" s="3" t="inlineStr">
@@ -51429,7 +51429,7 @@
       </c>
       <c r="F1214" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ: ১২/০৬/২০০৪</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G1214" s="3" t="inlineStr">
@@ -54117,7 +54117,7 @@
       </c>
       <c r="F1278" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২১/০৮/২০০৪</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1278" s="3" t="inlineStr">
@@ -57687,7 +57687,7 @@
       </c>
       <c r="F1363" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০২/০১/১৯৯৭</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1363" s="3" t="inlineStr">
@@ -57981,7 +57981,7 @@
       </c>
       <c r="F1370" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৮/১২/১৯৯৯</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1370" s="3" t="inlineStr">
@@ -57991,7 +57991,7 @@
       </c>
       <c r="H1370" s="5" t="inlineStr">
         <is>
-          <t>(৭৩৭), মিয়াজন মাষ্টার পাড়া, উত্তর কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>(৭৩৭), মিয়াজন মাষ্টার পাড়া, উত্তর কলাউজান, লোহাগাডি, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -59157,7 +59157,7 @@
       </c>
       <c r="F1398" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী জন্ম তারিখ:২০/১০/১৯৮৮</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1398" s="3" t="inlineStr">
@@ -60585,7 +60585,7 @@
       </c>
       <c r="F1432" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০২/০৯/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1432" s="3" t="inlineStr">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="F1497" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ২৫/০৮/১৯৬৬</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1497" s="3" t="inlineStr">
@@ -68565,7 +68565,7 @@
       </c>
       <c r="F1622" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৮/০৮/২০০৬</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1622" s="3" t="inlineStr">
@@ -70833,7 +70833,7 @@
       </c>
       <c r="F1676" s="3" t="inlineStr">
         <is>
-          <t>বেকার/জন্ম তারিখ: ০৭/০১/২০০৫</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G1676" s="3" t="inlineStr">
@@ -73311,7 +73311,7 @@
       </c>
       <c r="F1735" s="3" t="inlineStr">
         <is>
-          <t>বেকার/জন্ম তারিখ: ০১/০১/২০০৩</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G1735" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152564/152564_com_1844_male_without_photo_103_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152564/152564_com_1844_male_without_photo_103_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="42.5" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০১/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:২২/০১/২০০৬</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২৩/০১/২০০১</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="F418" s="3" t="inlineStr">
         <is>
-          <t>সরকারী চাকুরী</t>
+          <t>সরকারী চাকুরী/জন্ম তারিখ: ০৭/১২/২০০০</t>
         </is>
       </c>
       <c r="G418" s="3" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২২/০৮/২০০৬</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
@@ -30723,7 +30723,7 @@
       </c>
       <c r="F721" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০১/১০/২০০২</t>
         </is>
       </c>
       <c r="G721" s="3" t="inlineStr">
@@ -40299,7 +40299,7 @@
       </c>
       <c r="F949" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০২/০৩/১৯৯৬</t>
         </is>
       </c>
       <c r="G949" s="3" t="inlineStr">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="F953" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৩/০৮/২০০২</t>
         </is>
       </c>
       <c r="G953" s="3" t="inlineStr">
@@ -43365,7 +43365,7 @@
       </c>
       <c r="F1022" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০২/১২/২০০৫</t>
         </is>
       </c>
       <c r="G1022" s="3" t="inlineStr">
@@ -43911,7 +43911,7 @@
       </c>
       <c r="F1035" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ: ০৭/০২/১৯৯৬</t>
         </is>
       </c>
       <c r="G1035" s="3" t="inlineStr">
@@ -44037,7 +44037,7 @@
       </c>
       <c r="F1038" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০২/০২/২০০২</t>
         </is>
       </c>
       <c r="G1038" s="3" t="inlineStr">
@@ -51345,7 +51345,7 @@
       </c>
       <c r="F1212" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১৩/০৬/২০০৪</t>
         </is>
       </c>
       <c r="G1212" s="3" t="inlineStr">
@@ -51429,7 +51429,7 @@
       </c>
       <c r="F1214" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ: ১২/০৬/২০০৪</t>
         </is>
       </c>
       <c r="G1214" s="3" t="inlineStr">
@@ -54117,7 +54117,7 @@
       </c>
       <c r="F1278" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২১/০৮/২০০৪</t>
         </is>
       </c>
       <c r="G1278" s="3" t="inlineStr">
@@ -57687,7 +57687,7 @@
       </c>
       <c r="F1363" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০২/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="G1363" s="3" t="inlineStr">
@@ -57981,7 +57981,7 @@
       </c>
       <c r="F1370" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৮/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="G1370" s="3" t="inlineStr">
@@ -57991,7 +57991,7 @@
       </c>
       <c r="H1370" s="5" t="inlineStr">
         <is>
-          <t>(৭৩৭), মিয়াজন মাষ্টার পাড়া, উত্তর কলাউজান, লোহাগাডি, চট্টগ্রাম</t>
+          <t>(৭৩৭), মিয়াজন মাষ্টার পাড়া, উত্তর কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -59157,7 +59157,7 @@
       </c>
       <c r="F1398" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী জন্ম তারিখ:২০/১০/১৯৮৮</t>
         </is>
       </c>
       <c r="G1398" s="3" t="inlineStr">
@@ -60585,7 +60585,7 @@
       </c>
       <c r="F1432" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০২/০৯/২০০৩</t>
         </is>
       </c>
       <c r="G1432" s="3" t="inlineStr">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="F1497" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ২৫/০৮/১৯৬৬</t>
         </is>
       </c>
       <c r="G1497" s="3" t="inlineStr">
@@ -68565,7 +68565,7 @@
       </c>
       <c r="F1622" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৮/০৮/২০০৬</t>
         </is>
       </c>
       <c r="G1622" s="3" t="inlineStr">
@@ -70833,7 +70833,7 @@
       </c>
       <c r="F1676" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ: ০৭/০১/২০০৫</t>
         </is>
       </c>
       <c r="G1676" s="3" t="inlineStr">
@@ -73311,7 +73311,7 @@
       </c>
       <c r="F1735" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ: ০১/০১/২০০৩</t>
         </is>
       </c>
       <c r="G1735" s="3" t="inlineStr">
